--- a/biology/Zoologie/Glandirana_emeljanovi/Glandirana_emeljanovi.xlsx
+++ b/biology/Zoologie/Glandirana_emeljanovi/Glandirana_emeljanovi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glandirana emeljanovi est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glandirana emeljanovi est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre entre 100 et 300 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre entre 100 et 300 m d'altitude, :
 en Corée du Nord ;
 en Corée du Sud ;
 dans le nord-est de la république populaire de Chine.
@@ -546,10 +560,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rana emeljanovi mesure de 40 à 60 mm. Cette grenouille a une peau plissée avec des taches sombres irrégulières et qui s'avère toxique.
-Des gaegurines[3] peptides antimicrobiens ont été isolées de cette espèce.
+Des gaegurines peptides antimicrobiens ont été isolées de cette espèce.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La ponte a lieu en fin de printemps (jusqu'à fin mai). Les têtards passent leur premier hiver à l'état larvaire et ne se métamorphosent que l'été suivant.
 </t>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nikolskii, 1913 : Rana emeljanovi sp. n.. Annuaire du Musée Zoologique de l’Académie Impériale des Sciences de St. Pétersbourg, vol. 18, p. 148-150.</t>
         </is>
